--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/78_Van_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/78_Van_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6BA7B38-B41D-451F-90EF-5DCE4747A137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{832EB06B-D791-485C-92D8-39D8A771A9AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{2ECFFC12-4EF4-4135-916D-0EA4AC9212F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{1DA7CB1A-27AC-4FCC-96C4-A60C69280AD8}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -852,14 +852,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{DDD3F1DD-D8C1-4B7D-B420-89D59A6AF305}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{B36C56BA-EC50-40BF-9C02-A99269877450}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{AADE102B-646C-4144-92AE-3422FFDB7F73}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8A9591E2-6124-430A-9554-41AFA1E3C93F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{48DC514B-4ADC-4B27-816B-1A805A131767}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{41A70EA1-8F28-4B78-9318-08CF36B123F1}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{B34B9A5C-9B90-4DCC-80D4-3FDDBFE0D8E3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C7E0654A-2C0C-4DD1-AFED-3B17045F949A}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4A3E5B1B-2A6F-4CFD-A0AE-42132922F296}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{EC773BCB-FED2-4A27-9F3D-2B59CA593BEA}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{83A8B3A7-830B-4D05-A4F7-A715814A52B4}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{13A4EAE1-C026-488B-A1A2-1D83A4551989}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1C035E48-675F-475A-878C-FD4E11756313}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CE08E6B0-134D-49F7-9ABA-762651799CBF}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C8962310-C81C-4465-8F1C-01B78665AEE6}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{254C7A22-EC34-443D-AF26-762D99CA5023}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1229,7 +1229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6D0837-4521-41AA-989C-0E8E36895A50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B272F-4FFA-4953-A31C-84F173FDF1D3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2504,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F9F395-6520-4F1C-B8E6-37F0F9C37E30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{792236ED-7863-425C-8CA6-28DF4D1AE9D7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3783,7 +3783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C216E1E-910E-4DFF-A80D-3284CA57F4A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD201A8-8D92-432A-856C-E95A683775B1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5054,7 +5054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2DB87F-A019-45B4-A520-D50D8A7F9CC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40557DAF-5BFE-448A-A4E9-E8CFFF7EF870}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6325,7 +6325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77400E97-F666-4399-9444-86BB4E34F24B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFA96C0-C980-4ECA-A03E-D38A991E6812}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7582,7 +7582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED868ED-FBE6-453A-835B-BA71E75B7A9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FE4DF1-EB32-4261-BC06-12C234D22C8D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
